--- a/jewellery_catalog.xlsx
+++ b/jewellery_catalog.xlsx
@@ -102,18 +102,6 @@
     <t>For the special one</t>
   </si>
   <si>
-    <t>images/ring-11.JPG</t>
-  </si>
-  <si>
-    <t>images/ring-22.JPG</t>
-  </si>
-  <si>
-    <t>images/ring-33.JPG</t>
-  </si>
-  <si>
-    <t>images/ring-44.JPG</t>
-  </si>
-  <si>
     <t>Star Moon Bracelet</t>
   </si>
   <si>
@@ -126,21 +114,6 @@
     <t>Close ones Bracelet</t>
   </si>
   <si>
-    <t>images/bracelet-1.JPG</t>
-  </si>
-  <si>
-    <t>images/bracelet-2.JPG</t>
-  </si>
-  <si>
-    <t>images/bracelet-3.JPG</t>
-  </si>
-  <si>
-    <t>images/bracelet-4.JPG</t>
-  </si>
-  <si>
-    <t>images/bracelet-5.JPG</t>
-  </si>
-  <si>
     <t>BR001</t>
   </si>
   <si>
@@ -259,6 +232,33 @@
   </si>
   <si>
     <t>Modern trend Earring</t>
+  </si>
+  <si>
+    <t>images/bracelet-1.jpg</t>
+  </si>
+  <si>
+    <t>images/bracelet-2.jpg</t>
+  </si>
+  <si>
+    <t>images/bracelet-3.jpg</t>
+  </si>
+  <si>
+    <t>images/bracelet-4.jpg</t>
+  </si>
+  <si>
+    <t>images/bracelet-5.jpg</t>
+  </si>
+  <si>
+    <t>images/ring-11.jpg</t>
+  </si>
+  <si>
+    <t>images/ring-22.jpg</t>
+  </si>
+  <si>
+    <t>images/ring-33.jpg</t>
+  </si>
+  <si>
+    <t>images/ring-44.jpg</t>
   </si>
 </sst>
 </file>
@@ -642,7 +642,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,13 +700,13 @@
         <v>2500</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -726,13 +726,13 @@
         <v>2500</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -752,13 +752,13 @@
         <v>2500</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -778,18 +778,18 @@
         <v>2500</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -804,21 +804,21 @@
         <v>2000</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -830,21 +830,21 @@
         <v>2000</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -856,21 +856,21 @@
         <v>2000</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
@@ -882,21 +882,21 @@
         <v>2000</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
@@ -908,13 +908,13 @@
         <v>2000</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -934,13 +934,13 @@
         <v>8000</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -960,13 +960,13 @@
         <v>7000</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -986,13 +986,13 @@
         <v>6000</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1012,21 +1012,21 @@
         <v>10300</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
@@ -1038,21 +1038,21 @@
         <v>8000</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
@@ -1064,24 +1064,24 @@
         <v>9500</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2">
         <v>2.1</v>
@@ -1090,24 +1090,24 @@
         <v>2100</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D18" s="2">
         <v>3.2</v>
@@ -1116,24 +1116,24 @@
         <v>3200</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2">
         <v>1.8</v>
@@ -1142,24 +1142,24 @@
         <v>1800</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D20" s="2">
         <v>2.9</v>
@@ -1168,24 +1168,24 @@
         <v>2800</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D21" s="2">
         <v>1.5</v>
@@ -1194,24 +1194,24 @@
         <v>2000</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D22" s="2">
         <v>2.6</v>
@@ -1220,24 +1220,24 @@
         <v>2500</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2">
         <v>1.75</v>
@@ -1246,24 +1246,24 @@
         <v>1700</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D24" s="2">
         <v>2.56</v>
@@ -1272,13 +1272,13 @@
         <v>2500</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
